--- a/2COURSE/2SEM/MathStat/tasks/task6/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task6/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7606A61C-D667-4719-B297-DFE2A566E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD7992-41B7-4275-A704-808E73C79F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{2D142878-F714-4349-900F-A4CA43FE26F3}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Вар 18</t>
   </si>
@@ -185,6 +185,54 @@
   </si>
   <si>
     <t>Как видно, соответсвие удовлетворительное, разница составила</t>
+  </si>
+  <si>
+    <t>Матожидания для x=44,54,64</t>
+  </si>
+  <si>
+    <t>M(y|x=44)</t>
+  </si>
+  <si>
+    <t>\sum_J(n_ij*y_j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>M(y|x=54)</t>
+  </si>
+  <si>
+    <t>M(y|x=64)</t>
+  </si>
+  <si>
+    <t>Матрица распределения</t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>1/n</t>
+  </si>
+  <si>
+    <t>q(y_j)</t>
+  </si>
+  <si>
+    <t>p(x_i)</t>
+  </si>
+  <si>
+    <t>E(XY)</t>
+  </si>
+  <si>
+    <t>Матожидание xy</t>
+  </si>
+  <si>
+    <t>Ковариация</t>
+  </si>
+  <si>
+    <t>cov(x,y)</t>
+  </si>
+  <si>
+    <t>Коррреляционная таблица</t>
   </si>
 </sst>
 </file>
@@ -192,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -320,19 +368,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,16 +747,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF8F860-EF6B-4076-A00F-8E6BCC830B57}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AM33" sqref="AM33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -726,6 +778,13 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C6:F8)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -743,6 +802,13 @@
       <c r="F5">
         <v>69</v>
       </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5">
+        <f>1/H4</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -825,19 +891,19 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <f>C5</f>
+        <f t="shared" ref="D16:G19" si="0">C5</f>
         <v>49</v>
       </c>
       <c r="E16">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="F16">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G16">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="H16" t="s">
@@ -866,7 +932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -879,15 +945,15 @@
         <v>80</v>
       </c>
       <c r="E17" s="6">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F17" s="6">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17">
@@ -930,7 +996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -939,19 +1005,19 @@
         <v>54</v>
       </c>
       <c r="D18" s="8">
-        <f>C7</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <f>D7</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F18" s="9">
-        <f>E7</f>
+      <c r="F18">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G18" s="10">
-        <f>F7</f>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18">
@@ -959,22 +1025,22 @@
         <v>70</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I19" si="0">H18*C18</f>
+        <f t="shared" ref="I18" si="1">H18*C18</f>
         <v>3780</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J19" si="1">C18*C18</f>
+        <f t="shared" ref="J18:J19" si="2">C18*C18</f>
         <v>2916</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K19" si="2">J18*H18</f>
+        <f t="shared" ref="K18:K19" si="3">J18*H18</f>
         <v>204120</v>
       </c>
       <c r="N18">
         <v>54</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" ref="O18:O19" si="3">D18*O$16*$N18</f>
+        <f t="shared" ref="O18" si="4">D18*O$16*$N18</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
@@ -986,7 +1052,7 @@
         <v>155520</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" ref="R18:R19" si="4">G18*R$16*$N18</f>
+        <f t="shared" ref="R18" si="5">G18*R$16*$N18</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
@@ -994,7 +1060,7 @@
         <v>564750</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1002,20 +1068,20 @@
         <f>B8</f>
         <v>64</v>
       </c>
-      <c r="D19" s="11">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <f>D8</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <f>E8</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <f>F8</f>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H19">
@@ -1027,11 +1093,11 @@
         <v>960</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4096</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61440</v>
       </c>
       <c r="N19">
@@ -1046,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" ref="Q18:Q19" si="5">F19*Q$16*$N19</f>
+        <f t="shared" ref="Q19" si="6">F19*Q$16*$N19</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
@@ -1054,7 +1120,7 @@
         <v>66240</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -1079,9 +1145,8 @@
         <v>200</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>16</v>
       </c>
@@ -1090,19 +1155,19 @@
         <v>3920</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:G21" si="6">E20*E16</f>
+        <f t="shared" ref="E21:G21" si="7">E20*E16</f>
         <v>3540</v>
       </c>
       <c r="F21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2880</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1035</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>22</v>
       </c>
@@ -1111,19 +1176,19 @@
         <v>2401</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:G22" si="7">E16*E16</f>
+        <f t="shared" ref="E22:G22" si="8">E16*E16</f>
         <v>3481</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4096</v>
       </c>
       <c r="G22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>23</v>
       </c>
@@ -1132,24 +1197,24 @@
         <v>192080</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:G23" si="8">E22*E20</f>
+        <f t="shared" ref="E23:G23" si="9">E22*E20</f>
         <v>208860</v>
       </c>
       <c r="F23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>184320</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71415</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1160,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1309,7 @@
       <c r="L40" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="13">
         <f>(D18*D16+E18*E16+F18*F16+G18*G16)/H18</f>
         <v>62.214285714285715</v>
       </c>
@@ -1270,7 +1335,265 @@
         <v>0.83626132990428403</v>
       </c>
     </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <f>H17</f>
+        <v>115</v>
+      </c>
+      <c r="I49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50">
+        <f>D17*D16+E17*E16</f>
+        <v>5985</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" cm="1">
+        <f t="array" ref="J50:M50">D16:G16</f>
+        <v>49</v>
+      </c>
+      <c r="K50">
+        <v>59</v>
+      </c>
+      <c r="L50">
+        <v>64</v>
+      </c>
+      <c r="M50">
+        <v>69</v>
+      </c>
+      <c r="N50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <f>E50/D49</f>
+        <v>52.043478260869563</v>
+      </c>
+      <c r="I51" cm="1">
+        <f t="array" ref="I51:I53">C17:C19</f>
+        <v>44</v>
+      </c>
+      <c r="J51" cm="1">
+        <f t="array" ref="J51:M53">D17:G19*H5</f>
+        <v>0.4</v>
+      </c>
+      <c r="K51">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>SUM(J51:M51)</f>
+        <v>0.57500000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>54</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.125</v>
+      </c>
+      <c r="L52">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N53" si="10">SUM(J52:M52)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>64</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <f>SUM(J51:J53)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ref="K54" si="11">SUM(K51:K53)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ref="L54" si="12">SUM(L51:L53)</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54" si="13">SUM(M51:M53)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N54">
+        <f>SUM(N51:N53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <f>H18</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57">
+        <f>E18*E16+F18*F16</f>
+        <v>4355</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="3">
+        <f>E57/D56</f>
+        <v>62.214285714285715</v>
+      </c>
+      <c r="J58" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58">
+        <v>2823.75</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61">
+        <v>36.875</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <f>H19</f>
+        <v>15</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="3">
+        <f>D44</f>
+        <v>0.83626132990428403</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C65" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65">
+        <f>G19*G16</f>
+        <v>1035</v>
+      </c>
+      <c r="J65" s="3">
+        <f>K64</f>
+        <v>0.83626132990428403</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="3">
+        <f>E65/D64</f>
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C65:D65"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
